--- a/Material/06-01-OpcionesImpresion-CUE-inicial.xlsx
+++ b/Material/06-01-OpcionesImpresion-CUE-inicial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\UniversidadExcel\Videos\06-Impresion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan-\OneDrive\Desktop\curso-Excel\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B5673A-AEE5-4763-B761-4BCC2C3B87E0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2410C19-3892-4CA0-A12F-1A351F6BD924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27060" yWindow="4755" windowWidth="22560" windowHeight="12660" xr2:uid="{3F0E8518-93EF-457F-981D-FF1F60424D7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3F0E8518-93EF-457F-981D-FF1F60424D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabla!$A$1:$F$193</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">Tabla!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Tabla!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -873,9 +874,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -923,6 +924,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -999,19 +1001,18 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
@@ -1147,7 +1148,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1367,9 +1368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1407,7 +1408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1513,7 +1514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1655,7 +1656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1665,26 +1666,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD33982-8FB9-4AE2-9173-2E023CC8CCD9}">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="79" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" customWidth="1"/>
+    <col min="1" max="1" width="3.296875" customWidth="1"/>
     <col min="2" max="2" width="19.19921875" customWidth="1"/>
     <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.8984375" customWidth="1"/>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="10.09765625" customWidth="1"/>
-    <col min="7" max="7" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" customWidth="1"/>
     <col min="8" max="9" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1699,14 +1699,14 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1725,11 +1725,11 @@
       <c r="F2" s="1">
         <v>73</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1771,11 +1771,11 @@
       <c r="F4" s="1">
         <v>61</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1794,11 +1794,11 @@
       <c r="F5" s="1">
         <v>91</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1837,11 +1837,11 @@
       <c r="E7" s="3">
         <v>32587</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -1883,11 +1883,11 @@
       <c r="F9" s="1">
         <v>99</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1929,11 +1929,11 @@
       <c r="F11" s="1">
         <v>92</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -1975,11 +1975,11 @@
       <c r="F13" s="1">
         <v>53</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -2021,11 +2021,11 @@
       <c r="F15" s="1">
         <v>104</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1">
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1">
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1">
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -2133,11 +2133,11 @@
       <c r="F20" s="1">
         <v>106</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1">
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1">
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1">
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1">
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -2225,11 +2225,11 @@
       <c r="F24" s="1">
         <v>75</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1">
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1">
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1">
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -2294,11 +2294,11 @@
       <c r="F27" s="1">
         <v>69</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1">
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -2317,11 +2317,11 @@
       <c r="F28" s="1">
         <v>73</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1">
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1">
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -2363,11 +2363,11 @@
       <c r="F30" s="1">
         <v>77</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1">
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1">
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1">
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1">
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1">
+    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>36</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1">
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1">
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1">
+    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1">
+    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1">
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>41</v>
       </c>
@@ -2593,11 +2593,11 @@
       <c r="F40" s="1">
         <v>78</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1">
+    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1">
+    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="1" customFormat="1">
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="1" customFormat="1">
+    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="1" customFormat="1">
+    <row r="45" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="1" customFormat="1">
+    <row r="46" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>47</v>
       </c>
@@ -2731,11 +2731,11 @@
       <c r="F46" s="1">
         <v>60</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="1" customFormat="1">
+    <row r="47" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>48</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="1" customFormat="1">
+    <row r="48" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>49</v>
       </c>
@@ -2777,11 +2777,11 @@
       <c r="F48" s="1">
         <v>70</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="1" customFormat="1">
+    <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="1" customFormat="1">
+    <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -2823,11 +2823,11 @@
       <c r="F50" s="1">
         <v>78</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="1" customFormat="1">
+    <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="1" customFormat="1">
+    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="1" customFormat="1">
+    <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="1" customFormat="1">
+    <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -2915,11 +2915,11 @@
       <c r="F54" s="1">
         <v>102</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="1" customFormat="1">
+    <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -2938,11 +2938,11 @@
       <c r="F55" s="1">
         <v>79</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="1" customFormat="1">
+    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -2961,11 +2961,11 @@
       <c r="F56" s="1">
         <v>82</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="1" customFormat="1">
+    <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="1" customFormat="1">
+    <row r="58" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="1" customFormat="1">
+    <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -3030,11 +3030,11 @@
       <c r="F59" s="1">
         <v>66</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="1" customFormat="1">
+    <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -3053,11 +3053,11 @@
       <c r="F60" s="1">
         <v>64</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="1" customFormat="1">
+    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>62</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="1" customFormat="1">
+    <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="1" customFormat="1">
+    <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>64</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="1" customFormat="1">
+    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="1" customFormat="1">
+    <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>66</v>
       </c>
@@ -3165,11 +3165,11 @@
       <c r="E65" s="3">
         <v>30367</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="1" customFormat="1">
+    <row r="66" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>67</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="1" customFormat="1">
+    <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>68</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="1" customFormat="1">
+    <row r="68" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>69</v>
       </c>
@@ -3234,11 +3234,11 @@
       <c r="F68" s="1">
         <v>95</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="1" customFormat="1">
+    <row r="69" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>70</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="1" customFormat="1">
+    <row r="70" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>71</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="1" customFormat="1">
+    <row r="71" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>73</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="1" customFormat="1">
+    <row r="72" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>74</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="1" customFormat="1">
+    <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>75</v>
       </c>
@@ -3349,11 +3349,11 @@
       <c r="F73" s="1">
         <v>75</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="1" customFormat="1">
+    <row r="74" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>76</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="1" customFormat="1">
+    <row r="75" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>77</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="1" customFormat="1">
+    <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>78</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="1" customFormat="1">
+    <row r="77" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>79</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="1" customFormat="1">
+    <row r="78" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>80</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="1" customFormat="1">
+    <row r="79" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>81</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="1" customFormat="1">
+    <row r="80" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>82</v>
       </c>
@@ -3510,11 +3510,11 @@
       <c r="F80" s="1">
         <v>89</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="1" customFormat="1">
+    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>83</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="1" customFormat="1">
+    <row r="82" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>84</v>
       </c>
@@ -3556,11 +3556,11 @@
       <c r="F82" s="1">
         <v>100</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="1" customFormat="1">
+    <row r="83" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>85</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="1" customFormat="1">
+    <row r="84" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>86</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="1" customFormat="1">
+    <row r="85" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>87</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="1" customFormat="1">
+    <row r="86" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>88</v>
       </c>
@@ -3645,11 +3645,11 @@
       <c r="F86" s="1">
         <v>79</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="1" customFormat="1">
+    <row r="87" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>89</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="1" customFormat="1">
+    <row r="88" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>90</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="1" customFormat="1">
+    <row r="89" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>91</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="1" customFormat="1">
+    <row r="90" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>92</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="1" customFormat="1">
+    <row r="91" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>93</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="1" customFormat="1">
+    <row r="92" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>94</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="1" customFormat="1">
+    <row r="93" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>95</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="1" customFormat="1">
+    <row r="94" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>96</v>
       </c>
@@ -3829,11 +3829,11 @@
       <c r="F94" s="1">
         <v>90</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="1" customFormat="1">
+    <row r="95" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>98</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="1" customFormat="1">
+    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>99</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="1" customFormat="1">
+    <row r="97" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>100</v>
       </c>
@@ -3898,11 +3898,11 @@
       <c r="F97" s="1">
         <v>51</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="1" customFormat="1">
+    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>101</v>
       </c>
@@ -3921,11 +3921,11 @@
       <c r="F98" s="1">
         <v>62</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="1" customFormat="1">
+    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>102</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="1" customFormat="1">
+    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>103</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="1" customFormat="1">
+    <row r="101" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>104</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="1" customFormat="1">
+    <row r="102" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>105</v>
       </c>
@@ -4013,11 +4013,11 @@
       <c r="F102" s="1">
         <v>89</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="1" customFormat="1">
+    <row r="103" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>106</v>
       </c>
@@ -4036,11 +4036,11 @@
       <c r="F103" s="1">
         <v>96</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G103" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="1" customFormat="1">
+    <row r="104" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>107</v>
       </c>
@@ -4059,11 +4059,11 @@
       <c r="F104" s="1">
         <v>105</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="1" customFormat="1">
+    <row r="105" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>108</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="1" customFormat="1">
+    <row r="106" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>109</v>
       </c>
@@ -4105,11 +4105,11 @@
       <c r="F106" s="1">
         <v>86</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G106" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="1" customFormat="1">
+    <row r="107" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>110</v>
       </c>
@@ -4128,11 +4128,11 @@
       <c r="F107" s="1">
         <v>83</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="G107" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="1" customFormat="1">
+    <row r="108" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>111</v>
       </c>
@@ -4151,11 +4151,11 @@
       <c r="F108" s="1">
         <v>98</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="G108" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="1" customFormat="1">
+    <row r="109" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>112</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="1" customFormat="1">
+    <row r="110" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>113</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="1" customFormat="1">
+    <row r="111" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>114</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="1" customFormat="1">
+    <row r="112" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>115</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="1" customFormat="1">
+    <row r="113" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>116</v>
       </c>
@@ -4266,11 +4266,11 @@
       <c r="F113" s="1">
         <v>76</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G113" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="1" customFormat="1">
+    <row r="114" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>117</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="1" customFormat="1">
+    <row r="115" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>118</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="1" customFormat="1">
+    <row r="116" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>119</v>
       </c>
@@ -4335,11 +4335,11 @@
       <c r="F116" s="1">
         <v>62</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G116" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="1" customFormat="1">
+    <row r="117" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>120</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="1" customFormat="1">
+    <row r="118" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>121</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="1" customFormat="1">
+    <row r="119" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>123</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="1" customFormat="1">
+    <row r="120" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>124</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="1" customFormat="1">
+    <row r="121" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>125</v>
       </c>
@@ -4450,11 +4450,11 @@
       <c r="F121" s="1">
         <v>61</v>
       </c>
-      <c r="G121" s="5" t="s">
+      <c r="G121" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="1" customFormat="1">
+    <row r="122" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>126</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="1" customFormat="1">
+    <row r="123" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>127</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="1" customFormat="1">
+    <row r="124" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>128</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="1" customFormat="1">
+    <row r="125" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>129</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="1" customFormat="1">
+    <row r="126" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>130</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="1" customFormat="1">
+    <row r="127" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>131</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="1" customFormat="1">
+    <row r="128" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>132</v>
       </c>
@@ -4611,11 +4611,11 @@
       <c r="F128" s="1">
         <v>99</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G128" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="1" customFormat="1">
+    <row r="129" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>133</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="1" customFormat="1">
+    <row r="130" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>134</v>
       </c>
@@ -4657,11 +4657,11 @@
       <c r="F130" s="1">
         <v>92</v>
       </c>
-      <c r="G130" s="5" t="s">
+      <c r="G130" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="1" customFormat="1">
+    <row r="131" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>135</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="1" customFormat="1">
+    <row r="132" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>136</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="1" customFormat="1">
+    <row r="133" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>137</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="1" customFormat="1">
+    <row r="134" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>138</v>
       </c>
@@ -4749,11 +4749,11 @@
       <c r="F134" s="1">
         <v>104</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="G134" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="1" customFormat="1">
+    <row r="135" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>139</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="1" customFormat="1">
+    <row r="136" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>140</v>
       </c>
@@ -4795,11 +4795,11 @@
       <c r="F136" s="1">
         <v>107</v>
       </c>
-      <c r="G136" s="5" t="s">
+      <c r="G136" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="1" customFormat="1">
+    <row r="137" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>141</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="1" customFormat="1">
+    <row r="138" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>142</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="1" customFormat="1">
+    <row r="139" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>143</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="1" customFormat="1">
+    <row r="140" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>144</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="1" customFormat="1">
+    <row r="141" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>145</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="1" customFormat="1">
+    <row r="142" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>146</v>
       </c>
@@ -4933,11 +4933,11 @@
       <c r="F142" s="1">
         <v>85</v>
       </c>
-      <c r="G142" s="5" t="s">
+      <c r="G142" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="1" customFormat="1">
+    <row r="143" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>147</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="1" customFormat="1">
+    <row r="144" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>148</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="1" customFormat="1">
+    <row r="145" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>149</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="1" customFormat="1">
+    <row r="146" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>150</v>
       </c>
@@ -5025,11 +5025,11 @@
       <c r="F146" s="1">
         <v>69</v>
       </c>
-      <c r="G146" s="5" t="s">
+      <c r="G146" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="1" customFormat="1">
+    <row r="147" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>151</v>
       </c>
@@ -5048,11 +5048,11 @@
       <c r="F147" s="1">
         <v>73</v>
       </c>
-      <c r="G147" s="5" t="s">
+      <c r="G147" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="1" customFormat="1">
+    <row r="148" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>152</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="1" customFormat="1">
+    <row r="149" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>153</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="1" customFormat="1">
+    <row r="150" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>154</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="1" customFormat="1">
+    <row r="151" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>155</v>
       </c>
@@ -5140,11 +5140,11 @@
       <c r="F151" s="1">
         <v>59</v>
       </c>
-      <c r="G151" s="5" t="s">
+      <c r="G151" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="1" customFormat="1">
+    <row r="152" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>156</v>
       </c>
@@ -5163,11 +5163,11 @@
       <c r="F152" s="1">
         <v>106</v>
       </c>
-      <c r="G152" s="5" t="s">
+      <c r="G152" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="1" customFormat="1">
+    <row r="153" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>157</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="1" customFormat="1">
+    <row r="154" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>158</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="1" customFormat="1">
+    <row r="155" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>159</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="1" customFormat="1">
+    <row r="156" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>160</v>
       </c>
@@ -5255,11 +5255,11 @@
       <c r="F156" s="1">
         <v>66</v>
       </c>
-      <c r="G156" s="5" t="s">
+      <c r="G156" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="1" customFormat="1">
+    <row r="157" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>161</v>
       </c>
@@ -5278,11 +5278,11 @@
       <c r="F157" s="1">
         <v>68</v>
       </c>
-      <c r="G157" s="5" t="s">
+      <c r="G157" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="1" customFormat="1">
+    <row r="158" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>162</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="1" customFormat="1">
+    <row r="159" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>163</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="1" customFormat="1">
+    <row r="160" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>164</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="1" customFormat="1">
+    <row r="161" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>165</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="1" customFormat="1">
+    <row r="162" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>166</v>
       </c>
@@ -5393,11 +5393,11 @@
       <c r="F162" s="1">
         <v>79</v>
       </c>
-      <c r="G162" s="5" t="s">
+      <c r="G162" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="1" customFormat="1">
+    <row r="163" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>167</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="1" customFormat="1">
+    <row r="164" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>168</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="1" customFormat="1">
+    <row r="165" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>170</v>
       </c>
@@ -5462,11 +5462,11 @@
       <c r="F165" s="1">
         <v>87</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="G165" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="1" customFormat="1">
+    <row r="166" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>171</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="1" customFormat="1">
+    <row r="167" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>172</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="1" customFormat="1">
+    <row r="168" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>173</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="1" customFormat="1">
+    <row r="169" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>174</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="1" customFormat="1">
+    <row r="170" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>175</v>
       </c>
@@ -5577,11 +5577,11 @@
       <c r="F170" s="1">
         <v>103</v>
       </c>
-      <c r="G170" s="5" t="s">
+      <c r="G170" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="1" customFormat="1">
+    <row r="171" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>176</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="1" customFormat="1">
+    <row r="172" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>177</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="1" customFormat="1">
+    <row r="173" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>178</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="1" customFormat="1">
+    <row r="174" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>179</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="1" customFormat="1">
+    <row r="175" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>180</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="1" customFormat="1">
+    <row r="176" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>181</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="1" customFormat="1">
+    <row r="177" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>182</v>
       </c>
@@ -5738,11 +5738,11 @@
       <c r="F177" s="1">
         <v>66</v>
       </c>
-      <c r="G177" s="5" t="s">
+      <c r="G177" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="1" customFormat="1">
+    <row r="178" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>183</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="1" customFormat="1">
+    <row r="179" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>184</v>
       </c>
@@ -5784,11 +5784,11 @@
       <c r="F179" s="1">
         <v>104</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="G179" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="180" spans="1:7" s="1" customFormat="1">
+    <row r="180" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>185</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="1" customFormat="1">
+    <row r="181" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>186</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="182" spans="1:7" s="1" customFormat="1">
+    <row r="182" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>187</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="183" spans="1:7" s="1" customFormat="1">
+    <row r="183" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>188</v>
       </c>
@@ -5876,11 +5876,11 @@
       <c r="F183" s="1">
         <v>82</v>
       </c>
-      <c r="G183" s="5" t="s">
+      <c r="G183" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="184" spans="1:7" s="1" customFormat="1">
+    <row r="184" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>189</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="185" spans="1:7" s="1" customFormat="1">
+    <row r="185" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>190</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="186" spans="1:7" s="1" customFormat="1">
+    <row r="186" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>191</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="187" spans="1:7" s="1" customFormat="1">
+    <row r="187" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>192</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="188" spans="1:7" s="1" customFormat="1">
+    <row r="188" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>193</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="189" spans="1:7" s="1" customFormat="1">
+    <row r="189" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>195</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="1" customFormat="1">
+    <row r="190" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>196</v>
       </c>
@@ -6037,11 +6037,11 @@
       <c r="F190" s="1">
         <v>59</v>
       </c>
-      <c r="G190" s="5" t="s">
+      <c r="G190" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="1" customFormat="1">
+    <row r="191" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>197</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="1" customFormat="1">
+    <row r="192" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>198</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="1" customFormat="1">
+    <row r="193" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>200</v>
       </c>
@@ -6106,17 +6106,24 @@
       <c r="F193" s="1">
         <v>106</v>
       </c>
-      <c r="G193" s="5" t="s">
+      <c r="G193" t="s">
         <v>275</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G193">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G193">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L &amp;C&amp;F   </oddHeader>
+    <oddFooter>&amp;C&amp;P de &amp;N</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="7" max="1048575" man="1"/>
+  </colBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -6143,32 +6150,32 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>274</v>
       </c>
